--- a/tut05/output/0401ME12.xlsx
+++ b/tut05/output/0401ME12.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.469387755102041</v>
+        <v>5.47</v>
       </c>
       <c r="C6" t="n">
-        <v>5.068181818181818</v>
+        <v>5.07</v>
       </c>
       <c r="D6" t="n">
-        <v>5.957446808510638</v>
+        <v>5.96</v>
       </c>
       <c r="E6" t="n">
-        <v>5.857142857142857</v>
+        <v>5.86</v>
       </c>
       <c r="F6" t="n">
-        <v>7.565217391304348</v>
+        <v>7.57</v>
       </c>
       <c r="G6" t="n">
-        <v>7.043478260869565</v>
+        <v>7.04</v>
       </c>
       <c r="H6" t="n">
         <v>8.949999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.469387755102041</v>
+        <v>5.47</v>
       </c>
       <c r="C8" t="n">
-        <v>5.279569892473118</v>
+        <v>5.28</v>
       </c>
       <c r="D8" t="n">
-        <v>5.507142857142857</v>
+        <v>5.51</v>
       </c>
       <c r="E8" t="n">
-        <v>5.597883597883598</v>
+        <v>5.6</v>
       </c>
       <c r="F8" t="n">
-        <v>5.982978723404256</v>
+        <v>5.98</v>
       </c>
       <c r="G8" t="n">
-        <v>6.156583629893238</v>
+        <v>6.16</v>
       </c>
       <c r="H8" t="n">
-        <v>6.504672897196262</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.537396121883656</v>
+        <v>6.54</v>
       </c>
     </row>
   </sheetData>
